--- a/english/pythonnet/developer-guide/conversions/using-aspose-as-pandas-engine/test.xlsx
+++ b/english/pythonnet/developer-guide/conversions/using-aspose-as-pandas-engine/test.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonViaNet\Git\pandas\pandas\pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Release Doc\Aspose.Cells-Doc-md\english\pythonnet\developer-guide\conversions\using-aspose-as-pandas-engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C87F028-41ED-45C3-AEFB-46E2F9E04E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E274B2D-940E-4DF3-BF31-9D804103B9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4836" yWindow="4428" windowWidth="16656" windowHeight="7932" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Product A</t>
   </si>
@@ -39,37 +38,26 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>Evaluation Only. Created with Aspose.Cells for Python via .NET. Copyright 2003 - 2025 Aspose Pty Ltd.</t>
-  </si>
-  <si>
     <t>Q3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -100,9 +88,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0245E0D7-A556-4558-A013-A00983DEB9A6}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -707,7 +694,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,11 +705,11 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -730,101 +717,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5329FCD-ABCD-46FE-842D-06BBB2E0F45D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="G9:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="9" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="10" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G10">
         <v>50</v>
       </c>
-      <c r="B2">
+      <c r="H10">
         <v>160</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="11" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="B3">
+      <c r="H11">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="12" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G12">
         <v>170</v>
       </c>
-      <c r="B4">
+      <c r="H12">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="14" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>620</v>
+      </c>
+      <c r="H14">
+        <v>282</v>
+      </c>
+      <c r="I14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>620</v>
-      </c>
-      <c r="B6">
-        <v>282</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6B0EF2-298D-4332-8804-C8660A58B9A6}">
-  <dimension ref="A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>